--- a/记牌器.xlsx
+++ b/记牌器.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LittleDeng\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{111F1F7C-200A-4557-9649-52A311794EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LittleDeng\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1A65883-C4D6-410F-8CDD-7B46D2241FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11415" xr2:uid="{49674A51-CD79-459E-B14A-3666391761ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49674A51-CD79-459E-B14A-3666391761ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>大王</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,12 +71,16 @@
     <t>对方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>副牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +96,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,20 +128,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - 着色 2" xfId="1" builtinId="34"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -235,6 +260,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$P$10" max="4" page="10" val="0"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$R$3" max="20" min="1" page="10"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$E$5" max="4" page="10" val="0"/>
 </file>
@@ -1735,6 +1764,56 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1056" name="Spinner 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2062,136 +2141,143 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75079FC-9E8A-458E-8B27-65537341F74E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:P10"/>
+  <dimension ref="A2:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16" width="4.625" customWidth="1"/>
     <col min="18" max="18" width="5.625" customWidth="1"/>
+    <col min="19" max="19" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>10</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>9</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="2">
         <v>8</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>7</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="2">
         <v>6</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="2">
         <v>5</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="2">
         <v>4</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="2">
         <v>3</v>
       </c>
+      <c r="R2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <f>1-B5-B10</f>
+        <f>(1*$R$3)-B5-B10</f>
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3" si="0">1-C5-C10</f>
+        <f>(1*$R$3)-C5-C10</f>
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <f>4-D5-D10</f>
+        <f>(4*$R$3)-D5-D10</f>
         <v>4</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:P3" si="1">4-E5-E10</f>
+        <f t="shared" ref="E3:P3" si="0">(4*$R$3)-E5-E10</f>
         <v>4</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2199,7 +2285,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{F5495FBC-F3A5-40B6-B9CB-12117A8B4E1E}"/>
+    <dataValidation operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B3:P3" xr:uid="{F5495FBC-F3A5-40B6-B9CB-12117A8B4E1E}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2868,6 +2954,28 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1056" r:id="rId34" name="Spinner 32">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>17</xdr:col>
+                    <xdr:colOff>419100</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>19</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
